--- a/source/source_spreadsheets/uscore-server.xlsx
+++ b/source/source_spreadsheets/uscore-server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Argo-R4\source\source_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737B265C-7C14-4526-A1BE-F586D883DB25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5425BF7-E969-4CE7-A6AC-09EF9F5C0712}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -1263,7 +1263,477 @@
     <t>GET [base]/Practitioner?identifier=http://hl7.org/fhir/sid/us-npi\|97860456</t>
   </si>
   <si>
-    <t>The US Core Server **SHALL**:
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</t>
+  </si>
+  <si>
+    <t>US Core CareTeam Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
+  </si>
+  <si>
+    <t>US Core MedicationStatement Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</t>
+  </si>
+  <si>
+    <t>US Core Practitioner Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</t>
+  </si>
+  <si>
+    <t>US Core Immunization Profile</t>
+  </si>
+  <si>
+    <t>US Core Smoking Status Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
+  </si>
+  <si>
+    <t>US Core DocumentReference Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</t>
+  </si>
+  <si>
+    <t>US Core MedicationRequest Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</t>
+  </si>
+  <si>
+    <t>US Core Condition Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</t>
+  </si>
+  <si>
+    <t>US Core Organization Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</t>
+  </si>
+  <si>
+    <t>US Core Procedure Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication</t>
+  </si>
+  <si>
+    <t>US Core Medication Profile</t>
+  </si>
+  <si>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t>US Core DiagnosticReport Profile for Report and Note exchange</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</t>
+  </si>
+  <si>
+    <t>US Core PractitionerRole Profile</t>
+  </si>
+  <si>
+    <t>US Core CarePlan Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</t>
+  </si>
+  <si>
+    <t>US Core Goal Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</t>
+  </si>
+  <si>
+    <t>US Core Location Profile</t>
+  </si>
+  <si>
+    <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
+  </si>
+  <si>
+    <t>US Core Patient Profile</t>
+  </si>
+  <si>
+    <t>US Core Encounter Profile</t>
+  </si>
+  <si>
+    <t>US Core AllergyIntolerance Profile</t>
+  </si>
+  <si>
+    <t>docref</t>
+  </si>
+  <si>
+    <t>conf_AllergyIntolerance</t>
+  </si>
+  <si>
+    <t>conf_CarePlan</t>
+  </si>
+  <si>
+    <t>conf_CareTeam</t>
+  </si>
+  <si>
+    <t>conf_Condition</t>
+  </si>
+  <si>
+    <t>conf_Device</t>
+  </si>
+  <si>
+    <t>conf_DiagnosticReport</t>
+  </si>
+  <si>
+    <t>conf_DocumentReference</t>
+  </si>
+  <si>
+    <t>conf_Encounter</t>
+  </si>
+  <si>
+    <t>conf_Goal</t>
+  </si>
+  <si>
+    <t>conf_Immunization</t>
+  </si>
+  <si>
+    <t>conf_Location</t>
+  </si>
+  <si>
+    <t>conf_Medication</t>
+  </si>
+  <si>
+    <t>conf_MedicationRequest</t>
+  </si>
+  <si>
+    <t>conf_MedicationStatement</t>
+  </si>
+  <si>
+    <t>conf_Observation</t>
+  </si>
+  <si>
+    <t>conf_Organization</t>
+  </si>
+  <si>
+    <t>conf_Patient</t>
+  </si>
+  <si>
+    <t>conf_Practitioner</t>
+  </si>
+  <si>
+    <t>conf_PractitionerRole</t>
+  </si>
+  <si>
+    <t>conf_Procedure</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/OperationDefinition/docref</t>
+  </si>
+  <si>
+    <t>support searching for a specific device type for a patient (for example, implantable devices)</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2019</t>
+  </si>
+  <si>
+    <t>GET [base]/DocumentReference?patient=1316024&amp;type=http://loinc.org\|18842-5</t>
+  </si>
+  <si>
+    <t>GET [base]/Device?patient=1316024&amp;type=http://snomed.info/sct\|468063009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetches a bundle of all Device resources for the specified patient and type. </t>
+  </si>
+  <si>
+    <t>conditionalCreate</t>
+  </si>
+  <si>
+    <t>conditionalRead</t>
+  </si>
+  <si>
+    <t>shall_revinclude</t>
+  </si>
+  <si>
+    <t>should_revinclude</t>
+  </si>
+  <si>
+    <t>MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>conditionalUpdate</t>
+  </si>
+  <si>
+    <t>conditionalDelete</t>
+  </si>
+  <si>
+    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the latest proposed ONC [U.S. Core Data for Interoperability (USCDI)].  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
+  </si>
+  <si>
+    <t>us-core-server</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
+  </si>
+  <si>
+    <t>target-date</t>
+  </si>
+  <si>
+    <t>patient,target-date</t>
+  </si>
+  <si>
+    <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
+  </si>
+  <si>
+    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
+  </si>
+  <si>
+    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
+  </si>
+  <si>
+    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
+1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
+  </si>
+  <si>
+    <t>US Core Laboratory Result Observation Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
+  </si>
+  <si>
+    <t>US Core Pediatric BMI for Age Observation Profile</t>
+  </si>
+  <si>
+    <t>US Core Pediatric Weight  for Height Observation Profile</t>
+  </si>
+  <si>
+    <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
+`GET [base]/DocumentReference/$docref?patient=[id]`</t>
+  </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
+  </si>
+  <si>
+    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
+  </si>
+  <si>
+    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;status=final</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
+  </si>
+  <si>
+    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
+  </si>
+  <si>
+    <t>doc_DiagnosticReport</t>
+  </si>
+  <si>
+    <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
+  </si>
+  <si>
+    <t>The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationStatement?patient=[id]`
+ `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
+  </si>
+  <si>
+    <t>intent</t>
+  </si>
+  <si>
+    <t>patient,intent</t>
+  </si>
+  <si>
+    <t>patient,intent,status</t>
+  </si>
+  <si>
+    <t>patient,intent,authoredon</t>
+  </si>
+  <si>
+    <t>patient,intent,encounter</t>
+  </si>
+  <si>
+    <t>intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order</t>
+  </si>
+  <si>
+    <t>support searching for all medications that have been prescribed to a patient. See the [Medication List Guidance] section for guidance on accessing a patient medications. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
+  </si>
+  <si>
+    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order~GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order&amp;_include=MedicationRequest:medication</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order`</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and status</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and authoredon date</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and encounter</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>!MedicationStatement</t>
+  </si>
+  <si>
+    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
+ For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
+ `GET /MedicationRequest?patient=[id]`
+ `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`</t>
+  </si>
+  <si>
+    <t>Provenance</t>
+  </si>
+  <si>
+    <t>If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
+  </si>
+  <si>
+    <t>US Core Provenance Profile</t>
+  </si>
+  <si>
+    <t>conf_Provenance</t>
+  </si>
+  <si>
+    <t>US Core Pulse Oximetry Profile</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support searching relevant Provenance records for a resource type</t>
+  </si>
+  <si>
+    <t>reference,special</t>
+  </si>
+  <si>
+    <t>support searching for all allergies and associated provenance for a patient</t>
+  </si>
+  <si>
+    <t>token,special</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and status code.  This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
+  </si>
+  <si>
+    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and any corresponding Provenance resources.</t>
+  </si>
+  <si>
+    <t>Fetches an AllergyIntolerance resource  (within the clients authorization scope) and any corresponding Provenance resources.</t>
+  </si>
+  <si>
+    <t>SearchParameter-us-core-includeprovenance.html</t>
+  </si>
+  <si>
+    <t>support searching for an allergy and its associated provenance</t>
+  </si>
+  <si>
+    <t>US Core Implantable Device Profile</t>
+  </si>
+  <si>
+    <t>us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>patient,us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>_id,us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>GET [base]/AllergyIntolerance?patient=1137192&amp;us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>GET [base]/AllergyIntolerance?_id=12345&amp;us-core-includeprovenance</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core-3.1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The US Core Server **SHALL**:
 1. Support the US Core Patient resource profile.
 1. Support at least one additional resource profile from the list of US Core Profiles.
 1. Implement the RESTful behavior according to the FHIR specification.
@@ -1278,477 +1748,7 @@
 The US Core Server **SHOULD**:
 1. Support xml source formats for all US Core interactions.
 1. Identify the US Core profiles supported as part of the FHIR `meta.profile` attribute for each instance.
-1. Support xml resource formats for all Argonaut questionnaire interactions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</t>
-  </si>
-  <si>
-    <t>US Core CareTeam Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationstatement</t>
-  </si>
-  <si>
-    <t>US Core MedicationStatement Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner</t>
-  </si>
-  <si>
-    <t>US Core Practitioner Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</t>
-  </si>
-  <si>
-    <t>US Core Immunization Profile</t>
-  </si>
-  <si>
-    <t>US Core Smoking Status Observation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</t>
-  </si>
-  <si>
-    <t>US Core DocumentReference Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</t>
-  </si>
-  <si>
-    <t>US Core MedicationRequest Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</t>
-  </si>
-  <si>
-    <t>US Core Condition Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization</t>
-  </si>
-  <si>
-    <t>US Core Organization Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</t>
-  </si>
-  <si>
-    <t>US Core Procedure Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medication</t>
-  </si>
-  <si>
-    <t>US Core Medication Profile</t>
-  </si>
-  <si>
-    <t>Medication</t>
-  </si>
-  <si>
-    <t>US Core DiagnosticReport Profile for Report and Note exchange</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitionerrole</t>
-  </si>
-  <si>
-    <t>US Core PractitionerRole Profile</t>
-  </si>
-  <si>
-    <t>US Core CarePlan Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</t>
-  </si>
-  <si>
-    <t>US Core Goal Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-location</t>
-  </si>
-  <si>
-    <t>US Core Location Profile</t>
-  </si>
-  <si>
-    <t>US Core DiagnosticReport Profile for Laboratory Results Reporting</t>
-  </si>
-  <si>
-    <t>US Core Patient Profile</t>
-  </si>
-  <si>
-    <t>US Core Encounter Profile</t>
-  </si>
-  <si>
-    <t>US Core AllergyIntolerance Profile</t>
-  </si>
-  <si>
-    <t>docref</t>
-  </si>
-  <si>
-    <t>conf_AllergyIntolerance</t>
-  </si>
-  <si>
-    <t>conf_CarePlan</t>
-  </si>
-  <si>
-    <t>conf_CareTeam</t>
-  </si>
-  <si>
-    <t>conf_Condition</t>
-  </si>
-  <si>
-    <t>conf_Device</t>
-  </si>
-  <si>
-    <t>conf_DiagnosticReport</t>
-  </si>
-  <si>
-    <t>conf_DocumentReference</t>
-  </si>
-  <si>
-    <t>conf_Encounter</t>
-  </si>
-  <si>
-    <t>conf_Goal</t>
-  </si>
-  <si>
-    <t>conf_Immunization</t>
-  </si>
-  <si>
-    <t>conf_Location</t>
-  </si>
-  <si>
-    <t>conf_Medication</t>
-  </si>
-  <si>
-    <t>conf_MedicationRequest</t>
-  </si>
-  <si>
-    <t>conf_MedicationStatement</t>
-  </si>
-  <si>
-    <t>conf_Observation</t>
-  </si>
-  <si>
-    <t>conf_Organization</t>
-  </si>
-  <si>
-    <t>conf_Patient</t>
-  </si>
-  <si>
-    <t>conf_Practitioner</t>
-  </si>
-  <si>
-    <t>conf_PractitionerRole</t>
-  </si>
-  <si>
-    <t>conf_Procedure</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/OperationDefinition/docref</t>
-  </si>
-  <si>
-    <t>support searching for a specific device type for a patient (for example, implantable devices)</t>
-  </si>
-  <si>
-    <t>GET [base]/DocumentReference?patient=2169591&amp;type=http://loinc.org \|34133-9&amp;period=ge2019</t>
-  </si>
-  <si>
-    <t>GET [base]/DocumentReference?patient=1316024&amp;type=http://loinc.org\|18842-5</t>
-  </si>
-  <si>
-    <t>GET [base]/Device?patient=1316024&amp;type=http://snomed.info/sct\|468063009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fetches a bundle of all Device resources for the specified patient and type. </t>
-  </si>
-  <si>
-    <t>conditionalCreate</t>
-  </si>
-  <si>
-    <t>conditionalRead</t>
-  </si>
-  <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
-    <t>MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>conditionalUpdate</t>
-  </si>
-  <si>
-    <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>This Section describes the expected capabilities of the US Core Server actor which is responsible for providing responses to the queries submitted by the US Core Requestors. The complete list of FHIR profiles, RESTful operations, and search parameters supported by US Core Servers are defined. Systems implementing this capability statement should meet the ONC 2015 Common Clinical Data Set (CCDS) access requirement for Patient Selection 170.315(g)(7) and Application Access - Data Category Request 170.315(g)(8) and and the latest proposed ONC [U.S. Core Data for Interoperability (USCDI)].  US Core Clients have the option of choosing from this list to access necessary data based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>The MedicationStatement and MedicationRequest resources can represent a medication, using an external reference to a Medication resource. If an external Medication Resource is used in a MedicationStatement or a MedicationRequest, then the READ and SEARCH Criteria  **SHALL**  be supported.</t>
-  </si>
-  <si>
-    <t>us-core-server</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;status=active~GET [base]/MedicationRequest?patient=1137192&amp;status=active&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;status=active~GET [base]/MedicationStatement?patient=1137192&amp;status=active&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=1137192&amp;effective=ge2019~GET [base]/MedicationStatement?patient=1137192&amp;effective=ge2019&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationStatement?patient=1137192&amp;date=ge2019~GET [base]/MedicationRequest?patient=1137192&amp;date=ge2019&amp;_include=MedicationStatement:medication</t>
-  </si>
-  <si>
-    <t>target-date</t>
-  </si>
-  <si>
-    <t>patient,target-date</t>
-  </si>
-  <si>
-    <t>GET [base]/Goal?patient=1137192&amp;target-date=ge2015-01-14&amp;target-date=le2019-01-14</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;date=ge2018&amp;date=le2018</t>
-  </si>
-  <si>
-    <t>GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2019~GET [base]/CarePlan?patient=1137192&amp;category=http://hl7.org/fhir/us/core/CodeSystem/careplan-category\|assess-plan&amp;status=active&amp;date=ge2018&amp;date=le2019</t>
-  </si>
-  <si>
-    <t>The DocumentReference.type binding SHALL support at a minimum the [5 Common Clinical Notes](ValueSet-us-core-clinical-note-type.html) and may extend to the full US Core DocumentReference Type Value Set</t>
-  </si>
-  <si>
-    <t>1. See the [General Security Considerations](security.html) section for requirements and recommendations.
-1. A server **SHALL** reject any unauthorized requests by returning an `HTTP 401` unauthorized response code.</t>
-  </si>
-  <si>
-    <t>US Core Laboratory Result Observation Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-lab</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-bmi-for-age</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/pediatric-weight-for-height</t>
-  </si>
-  <si>
-    <t>US Core Pediatric BMI for Age Observation Profile</t>
-  </si>
-  <si>
-    <t>US Core Pediatric Weight  for Height Observation Profile</t>
-  </si>
-  <si>
-    <t>A server **SHALL** be capable of responding to a $docref operation and  capable of returning at least a reference to a generated CCD document, if available. **MAY** provide references to other 'on-demand' and 'stable' documents (or 'delayed/deferred assembly') that meet the query parameters as well. If a context date range is supplied the server ** SHOULD**  provide references to any document that falls within the date range If no date range is supplied, then the server **SHALL** provide references to last or current encounter.  **SHOULD** document what resources, if any, are returned as included resources
-`GET [base]/DocumentReference/$docref?patient=[id]`</t>
-  </si>
-  <si>
-    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|laboratory</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;status=final</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory</t>
-  </si>
-  <si>
-    <t>GET [base]Observation?patient=555580&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|laboratory&amp;date=ge2018-03-14</t>
-  </si>
-  <si>
-    <t>category=http://terminology.hl7.org/CodeSystem/observation-category|vital-signs</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;status=final</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs</t>
-  </si>
-  <si>
-    <t>GET [base]/Observation?patient=1134281&amp;category=http://terminology.hl7.org/CodeSystem/observation-category\|vital-signs&amp;date=ge2019</t>
-  </si>
-  <si>
-    <t>doc_DiagnosticReport</t>
-  </si>
-  <si>
-    <t>This conformance expectation applies **only**  to the *US Core DiagnosticReport Profile for Report and Note exchange* profile.  The conformance expectation for the *US Core DiagnosticReport Profile for Laboratory Results Reporting* is  **MAY**.</t>
-  </si>
-  <si>
-    <t>The MedicationStatement resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationStatement?patient=[id]`
- `GET /MedicationStatement?patient=[id]&amp;_include=MedicationStatement:medication`</t>
-  </si>
-  <si>
-    <t>intent</t>
-  </si>
-  <si>
-    <t>patient,intent</t>
-  </si>
-  <si>
-    <t>patient,intent,status</t>
-  </si>
-  <si>
-    <t>patient,intent,authoredon</t>
-  </si>
-  <si>
-    <t>patient,intent,encounter</t>
-  </si>
-  <si>
-    <t>intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order</t>
-  </si>
-  <si>
-    <t>support searching for all medications that have been prescribed to a patient. See the [Medication List Guidance] section for guidance on accessing a patient medications. The server application represents the medication using either an inline code or a contained or external reference to the Medication resource.</t>
-  </si>
-  <si>
-    <t>GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order~GET [base]/MedicationRequest?patient=14676&amp;intent=http://hl7.org/fhir/CodeSystem/medicationrequest-intent|order&amp;_include=MedicationRequest:medication</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent code = `order`</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and status</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and authoredon date</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all MedicationRequest resources for the specified patient and intent  code = `order` and encounter</t>
-  </si>
-  <si>
-    <t>encounter</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-implantable-device</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core.argo-3.1.0</t>
-  </si>
-  <si>
-    <t>!MedicationStatement</t>
-  </si>
-  <si>
-    <t>The MedicationRequest resources can represent a medication using either a code or refer to the Medication resource. When referencing Medication, the resource may be [contained](http://hl7.org/fhir/R4/references.html#contained) or an external resource. The server application **MAY** choose any one way or more than one method, but if an external reference to Medication is used, the server **SHALL** support the _include` parameter for searching this element. The client application must support all methods.
- For example, A server **SHALL** be capable of returning all medications for a patient using one of or both:
- `GET /MedicationRequest?patient=[id]`
- `GET /MedicationRequest?patient=[id]&amp;_include=MedicationRequest:medication`</t>
-  </si>
-  <si>
-    <t>Provenance</t>
-  </si>
-  <si>
-    <t>If a system receives a provider in `Provenance.agent.who` as free text they must capture who sent them the information as the organization. On request they **SHALL** provide this organization as the source and **MAY** include the free text provider.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-provenance</t>
-  </si>
-  <si>
-    <t>US Core Provenance Profile</t>
-  </si>
-  <si>
-    <t>conf_Provenance</t>
-  </si>
-  <si>
-    <t>US Core Pulse Oximetry Profile</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-pulse-oximetry</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support searching relevant Provenance records for a resource type</t>
-  </si>
-  <si>
-    <t>reference,special</t>
-  </si>
-  <si>
-    <t>support searching for all allergies and associated provenance for a patient</t>
-  </si>
-  <si>
-    <t>token,special</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and status code.  This will not return any "entered in error" resources because of the conditional presence of the clinicalStatus element.</t>
-  </si>
-  <si>
-    <t>Fetches a bundle of all AllergyIntolerance resources for the specified patient and any corresponding Provenance resources.</t>
-  </si>
-  <si>
-    <t>Fetches an AllergyIntolerance resource  (within the clients authorization scope) and any corresponding Provenance resources.</t>
-  </si>
-  <si>
-    <t>SearchParameter-us-core-includeprovenance.html</t>
-  </si>
-  <si>
-    <t>support searching for an allergy and its associated provenance</t>
-  </si>
-  <si>
-    <t>US Core Implantable Device Profile</t>
-  </si>
-  <si>
-    <t>us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>patient,us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>_id,us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>GET [base]/AllergyIntolerance?patient=1137192&amp;us-core-includeprovenance</t>
-  </si>
-  <si>
-    <t>GET [base]/AllergyIntolerance?_id=12345&amp;us-core-includeprovenance</t>
+</t>
   </si>
 </sst>
 </file>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2255,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="105" customHeight="1">
@@ -2263,7 +2263,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2271,7 +2271,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>373</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="103.5" customHeight="1">
@@ -2295,7 +2295,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -2331,7 +2331,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D27"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2" t="s">
         <v>374</v>
-      </c>
-      <c r="B2" t="s">
-        <v>375</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2373,10 +2373,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" t="s">
         <v>376</v>
-      </c>
-      <c r="B3" t="s">
-        <v>377</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -2388,10 +2388,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -2403,10 +2403,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -2421,7 +2421,7 @@
         <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -2433,10 +2433,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -2451,7 +2451,7 @@
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -2463,10 +2463,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -2478,10 +2478,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -2493,10 +2493,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -2508,10 +2508,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -2523,10 +2523,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
@@ -2553,10 +2553,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>13</v>
@@ -2568,25 +2568,25 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>13</v>
@@ -2601,7 +2601,7 @@
         <v>203</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>13</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -2631,7 +2631,7 @@
         <v>255</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -2643,10 +2643,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>13</v>
@@ -2658,10 +2658,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -2673,10 +2673,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
@@ -2688,10 +2688,10 @@
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
@@ -2705,7 +2705,7 @@
         <v>202</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
@@ -2720,7 +2720,7 @@
         <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>13</v>
@@ -2732,16 +2732,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -2756,10 +2756,10 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q22" sqref="Q22"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2791,49 +2791,49 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>348</v>
@@ -2842,10 +2842,10 @@
         <v>349</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="W1" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
@@ -2952,7 +2952,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>21</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="13" spans="1:24" ht="105">
       <c r="A13" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>21</v>
@@ -3042,7 +3042,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>21</v>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="15" spans="1:24" ht="315">
       <c r="A15" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>21</v>
@@ -3071,7 +3071,7 @@
         <v>78</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3163,13 +3163,13 @@
     </row>
     <row r="22" spans="1:21" ht="90">
       <c r="A22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>21</v>
@@ -3240,10 +3240,10 @@
     </row>
     <row r="2" spans="1:5" ht="135.75" thickBot="1">
       <c r="A2" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>191</v>
@@ -3252,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3289,70 +3289,70 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>428</v>
       </c>
-      <c r="V1" t="s">
-        <v>429</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="75">
@@ -3375,7 +3375,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3996,12 +3996,12 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="59.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -4010,7 +4010,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -4044,11 +4044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AC113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="AB86" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="AB74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.95" customHeight="1"/>
@@ -6854,7 +6854,7 @@
         <v>193</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>34</v>
@@ -6961,7 +6961,7 @@
         <v>194</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>34</v>
@@ -7062,7 +7062,7 @@
         <v>194</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
@@ -7164,7 +7164,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>68</v>
@@ -7217,7 +7217,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>99</v>
@@ -7275,7 +7275,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>247</v>
@@ -9061,7 +9061,7 @@
         <v>23</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>13</v>
@@ -9080,15 +9080,15 @@
         <v>65</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y95" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z95" s="7"/>
       <c r="AA95" s="12"/>
       <c r="AB95" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:28" s="1" customFormat="1" ht="18.95" customHeight="1">
@@ -9099,7 +9099,7 @@
         <v>253</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>13</v>
@@ -9118,15 +9118,15 @@
         <v>65</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y96" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z96" s="7"/>
       <c r="AA96" s="12"/>
       <c r="AB96" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:29" ht="18.95" customHeight="1">
@@ -9137,7 +9137,7 @@
         <v>267</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>13</v>
@@ -9156,15 +9156,15 @@
         <v>65</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y97" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z97" s="7"/>
       <c r="AA97" s="12"/>
       <c r="AB97" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC97" s="1"/>
     </row>
@@ -9176,7 +9176,7 @@
         <v>148</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>13</v>
@@ -9195,15 +9195,15 @@
         <v>65</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y98" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z98" s="7"/>
       <c r="AA98" s="12"/>
       <c r="AB98" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC98" s="1"/>
     </row>
@@ -9215,7 +9215,7 @@
         <v>192</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>13</v>
@@ -9234,15 +9234,15 @@
         <v>65</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y99" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z99" s="7"/>
       <c r="AA99" s="12"/>
       <c r="AB99" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC99" s="1"/>
     </row>
@@ -9254,7 +9254,7 @@
         <v>191</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>13</v>
@@ -9273,15 +9273,15 @@
         <v>65</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y100" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z100" s="7"/>
       <c r="AA100" s="12"/>
       <c r="AB100" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC100" s="1"/>
     </row>
@@ -9293,7 +9293,7 @@
         <v>25</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>13</v>
@@ -9312,15 +9312,15 @@
         <v>65</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y101" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z101" s="7"/>
       <c r="AA101" s="12"/>
       <c r="AB101" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC101" s="1"/>
     </row>
@@ -9332,7 +9332,7 @@
         <v>193</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>13</v>
@@ -9351,15 +9351,15 @@
         <v>65</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y102" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z102" s="7"/>
       <c r="AA102" s="12"/>
       <c r="AB102" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC102" s="1"/>
     </row>
@@ -9371,7 +9371,7 @@
         <v>172</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>13</v>
@@ -9390,15 +9390,15 @@
         <v>65</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y103" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z103" s="7"/>
       <c r="AA103" s="12"/>
       <c r="AB103" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC103" s="1"/>
     </row>
@@ -9410,7 +9410,7 @@
         <v>271</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>13</v>
@@ -9429,15 +9429,15 @@
         <v>65</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y104" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z104" s="7"/>
       <c r="AA104" s="12"/>
       <c r="AB104" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC104" s="1"/>
     </row>
@@ -9449,7 +9449,7 @@
         <v>196</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>13</v>
@@ -9468,15 +9468,15 @@
         <v>65</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y105" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z105" s="7"/>
       <c r="AA105" s="12"/>
       <c r="AB105" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC105" s="1"/>
     </row>
@@ -9488,7 +9488,7 @@
         <v>272</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>13</v>
@@ -9507,15 +9507,15 @@
         <v>65</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y106" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z106" s="7"/>
       <c r="AA106" s="12"/>
       <c r="AB106" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC106" s="1"/>
     </row>
@@ -9524,10 +9524,10 @@
         <v>102</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>13</v>
@@ -9546,15 +9546,15 @@
         <v>65</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y107" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z107" s="7"/>
       <c r="AA107" s="12"/>
       <c r="AB107" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC107" s="1"/>
     </row>
@@ -9566,7 +9566,7 @@
         <v>194</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>13</v>
@@ -9585,15 +9585,15 @@
         <v>65</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y108" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z108" s="7"/>
       <c r="AA108" s="12"/>
       <c r="AB108" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC108" s="1"/>
     </row>
@@ -9605,7 +9605,7 @@
         <v>286</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>13</v>
@@ -9624,15 +9624,15 @@
         <v>65</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y109" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z109" s="7"/>
       <c r="AA109" s="12"/>
       <c r="AB109" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC109" s="1"/>
     </row>
@@ -9644,7 +9644,7 @@
         <v>24</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>13</v>
@@ -9663,15 +9663,15 @@
         <v>65</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y110" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z110" s="7"/>
       <c r="AA110" s="12"/>
       <c r="AB110" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC110" s="1"/>
     </row>
@@ -9683,7 +9683,7 @@
         <v>293</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>13</v>
@@ -9702,15 +9702,15 @@
         <v>65</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y111" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z111" s="7"/>
       <c r="AA111" s="12"/>
       <c r="AB111" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC111" s="1"/>
     </row>
@@ -9722,7 +9722,7 @@
         <v>296</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>13</v>
@@ -9741,15 +9741,15 @@
         <v>65</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y112" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z112" s="7"/>
       <c r="AA112" s="12"/>
       <c r="AB112" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC112" s="1"/>
     </row>
@@ -9761,7 +9761,7 @@
         <v>195</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>13</v>
@@ -9780,15 +9780,15 @@
         <v>65</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Y113" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="Z113" s="7"/>
       <c r="AA113" s="12"/>
       <c r="AB113" s="1" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AC113" s="1"/>
     </row>
@@ -10353,13 +10353,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H20" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B20&amp;"s and associated provenance for a patient")</f>
@@ -10386,13 +10386,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H21" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B21&amp;" and its associated provenance")</f>
@@ -10776,13 +10776,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H35" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B35&amp;"s and associated provenance for a patient")</f>
@@ -10809,13 +10809,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H36" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B36&amp;" and its associated provenance")</f>
@@ -10965,13 +10965,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H41" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B41&amp;"s and associated provenance for a patient")</f>
@@ -10998,13 +10998,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-condition</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E42" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H42" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B42&amp;" and its associated provenance")</f>
@@ -11046,7 +11046,7 @@
         <v>356</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="1" customFormat="1">
@@ -11061,22 +11061,22 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="D44" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E44" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>526</v>
-      </c>
       <c r="J44" s="5" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="1" customFormat="1">
@@ -11091,22 +11091,22 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-allergyintolerance</v>
       </c>
       <c r="D45" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="E45" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>527</v>
-      </c>
       <c r="J45" s="5" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="1" customFormat="1">
@@ -11183,13 +11183,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E48" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H48" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B48&amp;"s and associated provenance for a patient")</f>
@@ -11216,13 +11216,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-immunization</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E49" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H49" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B49&amp;" and its associated provenance")</f>
@@ -11404,13 +11404,13 @@
         <v>202</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E55" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H55" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B55&amp;"s and associated provenance for a patient")</f>
@@ -11436,13 +11436,13 @@
         <v>202</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E56" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H56" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B56&amp;" and its associated provenance")</f>
@@ -11618,13 +11618,13 @@
         <v>203</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E62" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H62" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B62&amp;"s and associated provenance for a patient")</f>
@@ -11650,13 +11650,13 @@
         <v>203</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E63" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H63" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B63&amp;" and its associated provenance")</f>
@@ -11714,7 +11714,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>78</v>
@@ -11726,7 +11726,7 @@
         <v>223</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J65" s="5" t="str">
         <f t="shared" ref="J65" si="10">"Fetches a bundle of all "&amp;B65&amp;" resources for the specified "&amp;SUBSTITUTE(D65,","," and ")</f>
@@ -11745,13 +11745,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H66" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B66&amp;"s and associated provenance for a patient")</f>
@@ -11778,13 +11778,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-goal</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H67" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B67&amp;" and its associated provenance")</f>
@@ -11811,7 +11811,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>13</v>
@@ -11820,16 +11820,16 @@
         <v>116</v>
       </c>
       <c r="G68" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H68" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="I68" s="5" t="s">
+      <c r="J68" s="5" t="s">
         <v>490</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:10" s="1" customFormat="1">
@@ -11844,7 +11844,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
@@ -11853,16 +11853,16 @@
         <v>116</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H69" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="1" customFormat="1">
@@ -11877,7 +11877,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>78</v>
@@ -11886,16 +11886,16 @@
         <v>116</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>199</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="1" customFormat="1">
@@ -11910,7 +11910,7 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>78</v>
@@ -11919,16 +11919,16 @@
         <v>234</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H71" s="5" t="s">
         <v>249</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:10" s="1" customFormat="1">
@@ -11943,13 +11943,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E72" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H72" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B72&amp;"s and associated provenance for a patient")</f>
@@ -11976,13 +11976,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-medicationrequest</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E73" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H73" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B73&amp;" and its associated provenance")</f>
@@ -12002,7 +12002,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C74" s="1" t="str">
         <f t="shared" si="2"/>
@@ -12021,7 +12021,7 @@
         <v>201</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J74" s="5" t="str">
         <f t="shared" si="8"/>
@@ -12033,7 +12033,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C75" s="1" t="str">
         <f t="shared" si="2"/>
@@ -12052,7 +12052,7 @@
         <v>250</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>252</v>
@@ -12163,13 +12163,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H79" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B79&amp;"s and associated provenance for a patient")</f>
@@ -12196,13 +12196,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-procedure</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E80" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H80" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B80&amp;" and its associated provenance")</f>
@@ -12225,7 +12225,7 @@
         <v>196</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>256</v>
@@ -12237,13 +12237,13 @@
         <v>116</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H81" s="5" t="s">
         <v>307</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>352</v>
@@ -12257,7 +12257,7 @@
         <v>196</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>155</v>
@@ -12269,13 +12269,13 @@
         <v>116</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H82" s="5" t="s">
         <v>238</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J82" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B82&amp;" resources for the specified patient and a category code = `laboratory`"</f>
@@ -12290,7 +12290,7 @@
         <v>196</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>157</v>
@@ -12320,7 +12320,7 @@
         <v>196</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>208</v>
@@ -12332,13 +12332,13 @@
         <v>234</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>243</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J84" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B84&amp;" resources for the specified patient and date and a category code = `laboratory`"</f>
@@ -12353,7 +12353,7 @@
         <v>196</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>235</v>
@@ -12383,7 +12383,7 @@
         <v>351</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>126</v>
@@ -12413,16 +12413,16 @@
         <v>196</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H87" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B87&amp;"s and associated provenance for a patient")</f>
@@ -12445,16 +12445,16 @@
         <v>196</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H88" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B88&amp;" and its associated provenance")</f>
@@ -12528,7 +12528,7 @@
         <v>260</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>264</v>
@@ -12592,7 +12592,7 @@
         <v>259</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>266</v>
@@ -12610,13 +12610,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E93" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H93" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B93&amp;"s and associated provenance for a patient")</f>
@@ -12643,13 +12643,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careplan</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E94" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H94" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B94&amp;" and its associated provenance")</f>
@@ -12709,13 +12709,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E96" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H96" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B96&amp;"s and associated provenance for a patient")</f>
@@ -12742,13 +12742,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H97" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B97&amp;" and its associated provenance")</f>
@@ -12813,13 +12813,13 @@
         <v>302</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E99" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H99" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B99&amp;"s and associated provenance for a patient")</f>
@@ -12845,13 +12845,13 @@
         <v>302</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E100" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H100" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B100&amp;" and its associated provenance")</f>
@@ -12886,13 +12886,13 @@
         <v>116</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H101" s="5" t="s">
         <v>306</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J101" s="5" t="str">
         <f t="shared" ref="J101" si="19">"Fetches a bundle of all "&amp;B101&amp;" resources for the specified "&amp;SUBSTITUTE(D101,","," and ")</f>
@@ -12919,13 +12919,13 @@
         <v>116</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H102" s="5" t="s">
         <v>305</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J102" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B102&amp;" resources for the specified patient and a category code = `vital-signs`"</f>
@@ -12952,7 +12952,7 @@
         <v>116</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H103" s="5" t="s">
         <v>308</v>
@@ -12985,13 +12985,13 @@
         <v>234</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H104" s="5" t="s">
         <v>311</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J104" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B104&amp;" resources for the specified patient and date and a category code = `vital-signs`"</f>
@@ -13039,13 +13039,13 @@
         <v>350</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E106" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H106" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B106&amp;"s and associated provenance for a patient")</f>
@@ -13071,13 +13071,13 @@
         <v>350</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E107" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H107" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B107&amp;" and its associated provenance")</f>
@@ -13242,7 +13242,7 @@
         <v>329</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J112" s="5" t="s">
         <v>326</v>
@@ -13272,7 +13272,7 @@
         <v>330</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J113" s="5" t="str">
         <f>"Fetches a bundle of all "&amp;B113&amp;" resources for the specified "&amp;SUBSTITUTE(D113,","," and ") &amp;". See the implementation notes above for how to access the actual document."</f>
@@ -13291,13 +13291,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E114" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H114" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B114&amp;"s and associated provenance for a patient")</f>
@@ -13324,13 +13324,13 @@
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H115" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B115&amp;" and its associated provenance")</f>
@@ -13353,7 +13353,7 @@
         <v>271</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>128</v>
@@ -13365,13 +13365,13 @@
         <v>116</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I116" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J116" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="J116" s="5" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="1" customFormat="1">
@@ -13382,16 +13382,16 @@
         <v>271</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E117" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H117" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B117&amp;"s and associated provenance for a patient")</f>
@@ -13414,16 +13414,16 @@
         <v>271</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E118" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H118" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B118&amp;" and its associated provenance")</f>
@@ -13446,16 +13446,16 @@
         <v>272</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E119" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H119" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B119&amp;"s and associated provenance for a patient")</f>
@@ -13478,16 +13478,16 @@
         <v>272</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H120" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B120&amp;" and its associated provenance")</f>
@@ -13510,16 +13510,16 @@
         <v>286</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E121" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H121" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B121&amp;"s and associated provenance for a patient")</f>
@@ -13542,16 +13542,16 @@
         <v>286</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E122" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H122" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B122&amp;" and its associated provenance")</f>
@@ -13574,16 +13574,16 @@
         <v>293</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E123" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H123" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B123&amp;"s and associated provenance for a patient")</f>
@@ -13606,16 +13606,16 @@
         <v>293</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H124" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B124&amp;" and its associated provenance")</f>
@@ -13638,16 +13638,16 @@
         <v>296</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E125" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="H125" s="5" t="str">
         <f>"support searching for all "&amp;LOWER(B125&amp;"s and associated provenance for a patient")</f>
@@ -13670,16 +13670,16 @@
         <v>296</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E126" s="17" t="s">
         <v>13</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="H126" s="5" t="str">
         <f>"support searching for a "&amp;LOWER(B126&amp;" and its associated provenance")</f>
